--- a/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7619,6 +7619,17 @@
         <is>
           <t>10001211</t>
         </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C360">
+        <f>SUM(C2:C359)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -7632,7 +7643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7840,6 +7851,17 @@
         <is>
           <t>1869100A</t>
         </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -7853,7 +7875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10381,6 +10403,17 @@
         <is>
           <t>2109229</t>
         </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C127">
+        <f>SUM(C2:C126)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -10394,7 +10427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10502,6 +10535,17 @@
         <is>
           <t>30001830A</t>
         </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -10515,7 +10559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10623,6 +10667,17 @@
         <is>
           <t>40000266A</t>
         </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -10636,7 +10691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11604,6 +11659,17 @@
         <is>
           <t>5102100</t>
         </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C49">
+        <f>SUM(C2:C48)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -11617,7 +11683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11687,6 +11753,17 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C4">
+        <f>SUM(C2:C3)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Jepang" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Korea" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Lain-Lain" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Total" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61,10 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10460,12 +10464,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>你永远不懂我</t>
+          <t>Ni Yong Yuan Bu Dong Wo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>雨中白合</t>
+          <t>320574.0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -10480,12 +10484,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>別知己</t>
+          <t>Bie Zhi Ji</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>海来阿木 - 阿呷拉古 - 曲比阿且</t>
+          <t>311380.0 - 311381 - 311468.0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -10500,12 +10504,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>童话</t>
+          <t>Tong Hua</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>光良</t>
+          <t>310483.0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -10520,12 +10524,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>彩虹</t>
+          <t>Cai Hong</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>周杰伦</t>
+          <t>310555.0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -10592,12 +10596,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kizuna no Kiseki (Ost. Demon Slayer: Kimetsu no Yaiba)</t>
+          <t>Kizuna No Kiseki (Ost.  Demon Slayer: Kimetsu No Yaiba)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man with a Mission - ミレイ</t>
+          <t>430212.0 - 420498</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -10617,7 +10621,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>宇多田ヒカル</t>
+          <t>420203.0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -10637,7 +10641,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>비스트</t>
+          <t>530014.0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -10657,7 +10661,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>뉴진스</t>
+          <t>530424.0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -10724,12 +10728,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MEGAVERSE</t>
+          <t>Megaverse</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>스트레이 키즈</t>
+          <t>530310.0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -10749,7 +10753,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -10764,12 +10768,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>강남스타일</t>
+          <t>Gangnam Style</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>박재상</t>
+          <t>510660.0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -10784,12 +10788,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>리듬 타</t>
+          <t>Rhythm Ta</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>아이콘</t>
+          <t>530266.0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -10804,12 +10808,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>노크</t>
+          <t>Knock</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nasty Nasty</t>
+          <t>530237.0</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -10824,12 +10828,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>굿럭</t>
+          <t>Good Luck</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>비스트</t>
+          <t>530014.0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -10844,12 +10848,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>중독</t>
+          <t>Overdose</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>엑소</t>
+          <t>530036.0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -10869,7 +10873,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>방탄소년단 - Nicki Minaj</t>
+          <t>530173.0 - 220603</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -10889,7 +10893,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -10904,12 +10908,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>One and Only</t>
+          <t>One And Only</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>보이넥스트도어</t>
+          <t>530448.0</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -10929,7 +10933,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>엔시티 127</t>
+          <t>530285.0</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -10944,12 +10948,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>박수</t>
+          <t>CLAP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -10964,12 +10968,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>누구 없소</t>
+          <t>NO ONE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이하이 - 비아이</t>
+          <t>520054.0 - 510883</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -10989,7 +10993,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -11009,7 +11013,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>지민</t>
+          <t>520122.0</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -11029,7 +11033,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>에이티즈</t>
+          <t>530351.0</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -11044,12 +11048,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hmm-cheat</t>
+          <t>Hmm-Cheat</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>크러쉬</t>
+          <t>510742.0</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -11069,7 +11073,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>윈터</t>
+          <t>520212.0</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -11089,7 +11093,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>화사</t>
+          <t>520180.0</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -11109,7 +11113,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -11124,12 +11128,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>몬스터</t>
+          <t>Monster</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>엑소</t>
+          <t>530036.0</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -11144,12 +11148,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>소방차</t>
+          <t>Fire Truck</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>엔시티 127</t>
+          <t>530285.0</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -11164,12 +11168,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>흔들리고 있어</t>
+          <t>Shaking Heart</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>씨클라운</t>
+          <t>510665.0</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -11189,7 +11193,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>에프엑스</t>
+          <t>530037.0</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -11204,12 +11208,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>히스토리</t>
+          <t>History</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>엑소</t>
+          <t>530036.0</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -11229,7 +11233,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>530173.0</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -11244,12 +11248,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>내일은 없어</t>
+          <t>Now</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Trouble Maker</t>
+          <t>530186.0</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -11264,12 +11268,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>새드니스</t>
+          <t>Sadness</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>레드애플</t>
+          <t>530052.0</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -11284,12 +11288,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>몬스터</t>
+          <t>Monster</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>빅뱅</t>
+          <t>530017.0</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -11304,12 +11308,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>로즈</t>
+          <t>Rose</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>이하이</t>
+          <t>520054.0</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -11329,7 +11333,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>엔시티 127</t>
+          <t>530285.0</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -11349,7 +11353,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>뉴진스</t>
+          <t>530424.0</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -11369,7 +11373,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>엔하이픈</t>
+          <t>530404.0</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -11389,7 +11393,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>엔시티 127</t>
+          <t>530285.0</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -11404,12 +11408,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ANTIFRAGILE</t>
+          <t>Antifragile</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -11424,12 +11428,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>영웅</t>
+          <t>Kick It</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>엔시티 127</t>
+          <t>530285.0</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -11449,7 +11453,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>아이콘</t>
+          <t>530266.0</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -11469,7 +11473,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>몬스타엑스</t>
+          <t>530276.0</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -11489,7 +11493,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>트와이스</t>
+          <t>530275.0</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -11504,12 +11508,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KILLING ME</t>
+          <t>Killing Me</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>아이콘</t>
+          <t>530266.0</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -11529,7 +11533,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>뉴진스</t>
+          <t>530424.0</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -11549,7 +11553,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>뉴진스</t>
+          <t>530424.0</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -11569,7 +11573,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -11589,7 +11593,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>에이티즈</t>
+          <t>530351.0</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -11604,12 +11608,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>추격전</t>
+          <t>Chase</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>하츠투하츠</t>
+          <t>530491.0</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -11624,12 +11628,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>픽션</t>
+          <t>Fiction</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>비스트</t>
+          <t>530014.0</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -11644,12 +11648,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>솔로</t>
+          <t>Solo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>씨클라운</t>
+          <t>510665.0</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -11767,4 +11771,181 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Pop</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Daerah</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Jepang</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Lain-Lain</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <f>='Indonesia Pop'!C360</f>
+        <v/>
+      </c>
+      <c r="B2" s="2">
+        <f>='Indonesia Daerah'!C11</f>
+        <v/>
+      </c>
+      <c r="C2" s="2">
+        <f>='English'!C127</f>
+        <v/>
+      </c>
+      <c r="D2" s="2">
+        <f>='Mandarin'!C6</f>
+        <v/>
+      </c>
+      <c r="E2" s="2">
+        <f>='Jepang'!C6</f>
+        <v/>
+      </c>
+      <c r="F2" s="2">
+        <f>='Korea'!C49</f>
+        <v/>
+      </c>
+      <c r="G2" s="2">
+        <f>='Lain-Lain'!C4</f>
+        <v/>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM(A2:G2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Pop</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Daerah</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Jepang</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Lain-Lain</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <f>A2/H2</f>
+        <v/>
+      </c>
+      <c r="B4" s="2">
+        <f>B2/H2</f>
+        <v/>
+      </c>
+      <c r="C4" s="2">
+        <f>C2/H2</f>
+        <v/>
+      </c>
+      <c r="D4" s="2">
+        <f>D2/H2</f>
+        <v/>
+      </c>
+      <c r="E4" s="2">
+        <f>E2/H2</f>
+        <v/>
+      </c>
+      <c r="F4" s="2">
+        <f>F2/H2</f>
+        <v/>
+      </c>
+      <c r="G4" s="2">
+        <f>G2/H2</f>
+        <v/>
+      </c>
+      <c r="H4" s="2">
+        <f>H2/H2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
@@ -10469,7 +10469,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>320574.0</t>
+          <t>Yu Zhong Bai He</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>311380.0 - 311381 - 311468.0</t>
+          <t>Hai Lai A Mu - A Ga La Gu - Qu Biaqie</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310483.0</t>
+          <t>Michael Wong</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>310555.0</t>
+          <t>Jay Chou</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -10601,7 +10601,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>430212.0 - 420498</t>
+          <t>Man with a Mission - Milet</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>420203.0</t>
+          <t>Utada Hikaru</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>530014.0</t>
+          <t>Beast</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -10661,7 +10661,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>530424.0</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -10733,7 +10733,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>530310.0</t>
+          <t>Stray Kids</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -10753,7 +10753,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>510660.0</t>
+          <t>PSY</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>530266.0</t>
+          <t>iKON</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>530237.0</t>
+          <t>Nasty Nasty</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>530014.0</t>
+          <t>Beast</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -10853,7 +10853,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>530036.0</t>
+          <t>EXO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>530173.0 - 220603</t>
+          <t>BTS - Nicki Minaj</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -10913,7 +10913,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>530448.0</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>530285.0</t>
+          <t>NCT 127</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -10953,7 +10953,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>520054.0 - 510883</t>
+          <t>Lee Hi - B.I</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>520122.0</t>
+          <t>Jimin</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>530351.0</t>
+          <t>ATEEZ</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>510742.0</t>
+          <t>Crush</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>520212.0</t>
+          <t>Winter</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>520180.0</t>
+          <t>Hwasa</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>530036.0</t>
+          <t>EXO</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>530285.0</t>
+          <t>NCT 127</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>510665.0</t>
+          <t>C-Clown</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -11193,7 +11193,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>530037.0</t>
+          <t>F(X)</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>530036.0</t>
+          <t>EXO</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -11233,7 +11233,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>530173.0</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>530186.0</t>
+          <t>Trouble Maker</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -11273,7 +11273,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>530052.0</t>
+          <t>LED Apple</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>530017.0</t>
+          <t>Big Bang</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>520054.0</t>
+          <t>Lee Hi</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>530285.0</t>
+          <t>NCT 127</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>530424.0</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>530404.0</t>
+          <t>Enhypen</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>530285.0</t>
+          <t>NCT 127</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -11413,7 +11413,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>530285.0</t>
+          <t>NCT 127</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -11453,7 +11453,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>530266.0</t>
+          <t>iKON</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -11473,7 +11473,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>530276.0</t>
+          <t>Monsta X</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>530275.0</t>
+          <t>Twice</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>530266.0</t>
+          <t>iKON</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>530424.0</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>530424.0</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -11593,7 +11593,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>530351.0</t>
+          <t>ATEEZ</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>530491.0</t>
+          <t>Hearts2Hearts</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>530014.0</t>
+          <t>Beast</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -11653,7 +11653,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>510665.0</t>
+          <t>C-Clown</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>孙艺琪</t>
+          <t>Sun Yiqi</t>
         </is>
       </c>
       <c r="C3" t="n">

--- a/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
@@ -36,12 +36,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ccccff"/>
+        <bgColor rgb="00ccccff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -62,10 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -11779,7 +11788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11790,162 +11799,198 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Kategori Bahasa</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
+    <row r="3">
+      <c r="A3" s="3">
         <f>='Indonesia Pop'!C360</f>
         <v/>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="3">
         <f>='Indonesia Daerah'!C11</f>
         <v/>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="3">
         <f>='English'!C127</f>
         <v/>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="3">
         <f>='Mandarin'!C6</f>
         <v/>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="3">
         <f>='Jepang'!C6</f>
         <v/>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="3">
         <f>='Korea'!C49</f>
         <v/>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="3">
         <f>='Lain-Lain'!C4</f>
         <v/>
       </c>
-      <c r="H2" s="2">
-        <f>SUM(A2:G2)</f>
+      <c r="H3" s="3">
+        <f>SUM(A3:G3)</f>
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Prosentase</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <f>A2/H2</f>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>A3/H3</f>
         <v/>
       </c>
-      <c r="B4" s="2">
-        <f>B2/H2</f>
+      <c r="B7">
+        <f>B3/H3</f>
         <v/>
       </c>
-      <c r="C4" s="2">
-        <f>C2/H2</f>
+      <c r="C7">
+        <f>C3/H3</f>
         <v/>
       </c>
-      <c r="D4" s="2">
-        <f>D2/H2</f>
+      <c r="D7">
+        <f>D3/H3</f>
         <v/>
       </c>
-      <c r="E4" s="2">
-        <f>E2/H2</f>
+      <c r="E7">
+        <f>E3/H3</f>
         <v/>
       </c>
-      <c r="F4" s="2">
-        <f>F2/H2</f>
+      <c r="F7">
+        <f>F3/H3</f>
         <v/>
       </c>
-      <c r="G4" s="2">
-        <f>G2/H2</f>
+      <c r="G7">
+        <f>G3/H3</f>
         <v/>
       </c>
-      <c r="H4" s="2">
-        <f>H2/H2</f>
+      <c r="H7">
+        <f>H3/H3</f>
         <v/>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP101.xlsx
@@ -11899,7 +11899,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Prosentase</t>
+          <t>Persentase</t>
         </is>
       </c>
       <c r="B5" s="3" t="n"/>
